--- a/работна/СП.xlsx
+++ b/работна/СП.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -472,6 +472,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:C11">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/работна/СП.xlsx
+++ b/работна/СП.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,10 +393,10 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -409,71 +409,71 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B2:C11">
-    <sortCondition ref="B2"/>
+    <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/работна/СП.xlsx
+++ b/работна/СП.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3210" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3216" windowHeight="8568"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,15 +70,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,15 +98,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -364,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -372,102 +402,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C11"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>7</v>
       </c>
     </row>

--- a/работна/СП.xlsx
+++ b/работна/СП.xlsx
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +383,7 @@
     <col min="2" max="2" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -391,89 +391,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C7">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C10">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="B2:C11">
-    <sortCondition ref="B2"/>
+  <sortState ref="A2:C11">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
